--- a/src/kraken_files/excel_files/XZECZUSD.xlsx
+++ b/src/kraken_files/excel_files/XZECZUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,116 +475,93 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.49168</v>
+        <v>11.4270208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.21875</v>
+        <v>0.5468750000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>153.110523168</v>
+        <v>145.02939614208</v>
       </c>
       <c r="E2" t="n">
-        <v>156.530789784</v>
+        <v>150.78009296304</v>
       </c>
       <c r="F2" t="n">
-        <v>158.09609768184</v>
+        <v>152.2878938926704</v>
       </c>
       <c r="G2" t="n">
-        <v>3.153508901828306</v>
+        <v>4.766299910684991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4270208</v>
+        <v>19.12615245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5468750000000001</v>
+        <v>1.3671875</v>
       </c>
       <c r="D3" t="n">
-        <v>145.02939614208</v>
+        <v>132.42283797837</v>
       </c>
       <c r="E3" t="n">
-        <v>150.78009296304</v>
+        <v>141.601465470705</v>
       </c>
       <c r="F3" t="n">
-        <v>152.2878938926704</v>
+        <v>143.0174801254121</v>
       </c>
       <c r="G3" t="n">
-        <v>4.766299910684991</v>
+        <v>7.407935126357712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>19.12615245</v>
+        <v>31.13679782</v>
       </c>
       <c r="C4" t="n">
-        <v>1.3671875</v>
+        <v>3.41796875</v>
       </c>
       <c r="D4" t="n">
-        <v>132.42283797837</v>
+        <v>112.756607249532</v>
       </c>
       <c r="E4" t="n">
-        <v>141.601465470705</v>
+        <v>127.1790363601185</v>
       </c>
       <c r="F4" t="n">
-        <v>143.0174801254121</v>
+        <v>128.4508267237197</v>
       </c>
       <c r="G4" t="n">
-        <v>7.407935126357712</v>
+        <v>12.21807587735019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>31.13679782</v>
+        <v>49.8734046</v>
       </c>
       <c r="C5" t="n">
-        <v>3.41796875</v>
+        <v>8.544921875000002</v>
       </c>
       <c r="D5" t="n">
-        <v>112.756607249532</v>
+        <v>82.07728730796001</v>
       </c>
       <c r="E5" t="n">
-        <v>127.1790363601185</v>
+        <v>104.6281618340393</v>
       </c>
       <c r="F5" t="n">
-        <v>128.4508267237197</v>
+        <v>105.6744434523796</v>
       </c>
       <c r="G5" t="n">
-        <v>12.21807587735019</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>49.8734046</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.544921875000002</v>
-      </c>
-      <c r="D6" t="n">
-        <v>82.07728730796001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>104.6281618340393</v>
-      </c>
-      <c r="F6" t="n">
-        <v>105.6744434523796</v>
-      </c>
-      <c r="G6" t="n">
         <v>22.33005007975584</v>
       </c>
     </row>
@@ -599,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +614,16 @@
       </c>
       <c r="B3" t="n">
         <v>161.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OMNIAC-TCBSW-DM6PM5</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>158.09</v>
       </c>
     </row>
   </sheetData>
